--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>Git test</v>
+        <v>Push File Test</v>
       </c>
       <c r="B2" t="str">
-        <v>1h</v>
+        <v>2h</v>
       </c>
       <c r="C2" t="str">
-        <v>Bowen Zhong</v>
+        <v>Bowen</v>
       </c>
       <c r="D2" t="str">
-        <v>100%</v>
+        <v>80%</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>Push File Test</v>
+        <v>callback test</v>
       </c>
       <c r="B2" t="str">
-        <v>2h</v>
+        <v>1h</v>
       </c>
       <c r="C2" t="str">
         <v>Bowen</v>
       </c>
       <c r="D2" t="str">
-        <v>80%</v>
+        <v>10%</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,7 +400,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>callback test</v>
+        <v>Callback Modification</v>
       </c>
       <c r="B2" t="str">
         <v>1h</v>
@@ -409,7 +409,7 @@
         <v>Bowen</v>
       </c>
       <c r="D2" t="str">
-        <v>10%</v>
+        <v>50%</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>Callback Modification</v>
+        <v>Delete Existing File</v>
       </c>
       <c r="B2" t="str">
-        <v>1h</v>
+        <v>0.1h</v>
       </c>
       <c r="C2" t="str">
         <v>Bowen</v>
       </c>
       <c r="D2" t="str">
-        <v>50%</v>
+        <v>100%</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,13 +400,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>Delete Existing File</v>
+        <v>Random</v>
       </c>
       <c r="B2" t="str">
-        <v>0.1h</v>
+        <v>1h</v>
       </c>
       <c r="C2" t="str">
-        <v>Bowen</v>
+        <v>Bo</v>
       </c>
       <c r="D2" t="str">
         <v>100%</v>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>Random</v>
+        <v>ga</v>
       </c>
       <c r="B2" t="str">
-        <v>1h</v>
+        <v>rga</v>
       </c>
       <c r="C2" t="str">
-        <v>Bo</v>
+        <v>gare</v>
       </c>
       <c r="D2" t="str">
-        <v>100%</v>
+        <v>ra</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>ga</v>
+        <v>gesrahgc</v>
       </c>
       <c r="B2" t="str">
-        <v>rga</v>
+        <v>ges</v>
       </c>
       <c r="C2" t="str">
-        <v>gare</v>
+        <v>mncghmc</v>
       </c>
       <c r="D2" t="str">
-        <v>ra</v>
+        <v>ghmi</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>gesrahgc</v>
+        <v>Modify FIle.js Callback</v>
       </c>
       <c r="B2" t="str">
-        <v>ges</v>
+        <v>1h</v>
       </c>
       <c r="C2" t="str">
-        <v>mncghmc</v>
+        <v>Bowen</v>
       </c>
       <c r="D2" t="str">
-        <v>ghmi</v>
+        <v>80%</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,7 +400,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>Modify FIle.js Callback</v>
+        <v>Test Again</v>
       </c>
       <c r="B2" t="str">
         <v>1h</v>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>Test Again</v>
+        <v>awe</v>
       </c>
       <c r="B2" t="str">
-        <v>1h</v>
+        <v>gn</v>
       </c>
       <c r="C2" t="str">
-        <v>Bowen</v>
+        <v>qwe</v>
       </c>
       <c r="D2" t="str">
-        <v>80%</v>
+        <v>q</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>awe</v>
+        <v>3fe</v>
       </c>
       <c r="B2" t="str">
-        <v>gn</v>
+        <v>wf</v>
       </c>
       <c r="C2" t="str">
-        <v>qwe</v>
+        <v>hb</v>
       </c>
       <c r="D2" t="str">
-        <v>q</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>3fe</v>
+        <v>fawe</v>
       </c>
       <c r="B2" t="str">
-        <v>wf</v>
+        <v>faweg</v>
       </c>
       <c r="C2" t="str">
-        <v>hb</v>
+        <v>greg</v>
       </c>
       <c r="D2" t="str">
-        <v>3</v>
+        <v>rg</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>fawe</v>
+        <v>fewaf</v>
       </c>
       <c r="B2" t="str">
-        <v>faweg</v>
+        <v>rz</v>
       </c>
       <c r="C2" t="str">
-        <v>greg</v>
+        <v>zrg</v>
       </c>
       <c r="D2" t="str">
-        <v>rg</v>
+        <v>zrg</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>fewaf</v>
+        <v>gre</v>
       </c>
       <c r="B2" t="str">
-        <v>rz</v>
+        <v>taw</v>
       </c>
       <c r="C2" t="str">
-        <v>zrg</v>
+        <v>eawe</v>
       </c>
       <c r="D2" t="str">
-        <v>zrg</v>
+        <v>eewr</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>gre</v>
+        <v>zrg</v>
       </c>
       <c r="B2" t="str">
-        <v>taw</v>
+        <v>eger</v>
       </c>
       <c r="C2" t="str">
-        <v>eawe</v>
+        <v>gar</v>
       </c>
       <c r="D2" t="str">
-        <v>eewr</v>
+        <v>ga</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>zrg</v>
+        <v>r</v>
       </c>
       <c r="B2" t="str">
-        <v>eger</v>
+        <v>r</v>
       </c>
       <c r="C2" t="str">
-        <v>gar</v>
+        <v>2</v>
       </c>
       <c r="D2" t="str">
-        <v>ga</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,13 +400,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>r</v>
+        <v>333333</v>
       </c>
       <c r="B2" t="str">
-        <v>r</v>
+        <v>f3</v>
       </c>
       <c r="C2" t="str">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,7 +400,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>333333</v>
+        <v>66666</v>
       </c>
       <c r="B2" t="str">
         <v>f3</v>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>66666</v>
+        <v>ffa</v>
       </c>
       <c r="B2" t="str">
-        <v>f3</v>
+        <v>eag</v>
       </c>
       <c r="C2" t="str">
-        <v>31</v>
+        <v>sa4</v>
       </c>
       <c r="D2" t="str">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>ffa</v>
+        <v>fef</v>
       </c>
       <c r="B2" t="str">
-        <v>eag</v>
+        <v>ze</v>
       </c>
       <c r="C2" t="str">
-        <v>sa4</v>
+        <v>ed</v>
       </c>
       <c r="D2" t="str">
-        <v>44</v>
+        <v>dzEf</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>fef</v>
+        <v>Finally, I done node-git callback test</v>
       </c>
       <c r="B2" t="str">
-        <v>ze</v>
+        <v>4h</v>
       </c>
       <c r="C2" t="str">
-        <v>ed</v>
+        <v>Bowen</v>
       </c>
       <c r="D2" t="str">
-        <v>dzEf</v>
+        <v>100%</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>Finally, I done node-git callback test</v>
+        <v>Http Response Test</v>
       </c>
       <c r="B2" t="str">
-        <v>4h</v>
+        <v>1h</v>
       </c>
       <c r="C2" t="str">
-        <v>Bowen</v>
+        <v>Bo</v>
       </c>
       <c r="D2" t="str">
-        <v>100%</v>
+        <v>50%</v>
       </c>
     </row>
   </sheetData>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,7 +400,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>Http Response Test</v>
+        <v>Http Test</v>
       </c>
       <c r="B2" t="str">
         <v>1h</v>

--- a/BowenWeekReport20170507.xlsx
+++ b/BowenWeekReport20170507.xlsx
@@ -400,16 +400,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <v>Http Test</v>
+        <v>AEF</v>
       </c>
       <c r="B2" t="str">
-        <v>1h</v>
+        <v>AEFA</v>
       </c>
       <c r="C2" t="str">
-        <v>Bo</v>
+        <v>RFSERG</v>
       </c>
       <c r="D2" t="str">
-        <v>50%</v>
+        <v>RQ3W</v>
       </c>
     </row>
   </sheetData>
